--- a/说明.xlsx
+++ b/说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="10755" windowHeight="4455" activeTab="7"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="10755" windowHeight="4455" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,15 @@
     <sheet name="Z2coo" sheetId="7" r:id="rId7"/>
     <sheet name="Z2mov" sheetId="8" r:id="rId8"/>
     <sheet name="Z2pho" sheetId="9" r:id="rId9"/>
+    <sheet name="Chroma1" sheetId="10" r:id="rId10"/>
+    <sheet name="Chroma2" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="305">
   <si>
     <t>二、下载并安装VS2008ProEdition90DayTrialCHSX1435983.iso</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -261,6 +263,786 @@
   </si>
   <si>
     <t>帧动画   CFrameAnime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameTable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mirror</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过光线跟踪，得到光线经过的格点和颜色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出光线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainWin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sample</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最有技巧的是光线跟踪，它的基本思想是一束单色的光经过一面镜子后的输出（方向和颜色）是宿命的，并且入射光和镜子方向的夹角决定了出射光和镜子方向的夹角。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为镜子建表：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>for (int in = 0; in &lt; 8; in++)</t>
+  </si>
+  <si>
+    <t>for (int color = 1; color &lt; 8; color++)</t>
+  </si>
+  <si>
+    <t>TblMirror[MAKE_INDEX(MT_NOTHING,    0, in, color)] = MAKE_BEAM(in, color);</t>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TblMirror[MAKE_INDEX(MT_NOTHING,    0, in, color)] = MAKE_BEAM(in, color);</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT_NOTHING：入射光=in,颜色=color时，出去的光的颜色还是color，方向还等于in</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄 = 红 + 绿 = 红 | 绿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫 = 红 + 蓝 = 红 | 蓝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>青 = 绿 + 蓝 = 绿 | 蓝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白 = 红 + 绿 +　蓝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这些镜子和空白镜一样，都不会改变颜色和方向，所以建表：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void CreateNothing()</t>
+  </si>
+  <si>
+    <t>TblMirror[MAKE_INDEX(MT_TELEPORTER, 0, in, color)] = MAKE_BEAM(in, color);</t>
+  </si>
+  <si>
+    <t>TblMirror[MAKE_INDEX(MT_OCCUPIED,   0, in, color)] = MAKE_BEAM(in, color);</t>
+  </si>
+  <si>
+    <t>for (int dir = 0; dir &lt; 8; dir++)</t>
+  </si>
+  <si>
+    <t>TblMirror[MAKE_INDEX(MT_TARGET,     dir, in, color)] = MAKE_BEAM(in, color);</t>
+  </si>
+  <si>
+    <t>TblMirror[MAKE_INDEX(MT_HIT_TARGET, dir, in, color)] = MAKE_BEAM(in, color);</t>
+  </si>
+  <si>
+    <t>void _CreateRefraction(int nType, int turns, int TOut[8])</t>
+  </si>
+  <si>
+    <t>FOREACH_DIR_BEGIN(turns)</t>
+  </si>
+  <si>
+    <t>int angle_out = TOut[ANGLE_IN];</t>
+  </si>
+  <si>
+    <t>if (angle_out != -1)</t>
+  </si>
+  <si>
+    <t>int out = DIR(dir + angle_out + 4);</t>
+  </si>
+  <si>
+    <t>//90度反射，垂直反射</t>
+  </si>
+  <si>
+    <t>TblMirror[MAKE_INDEX(nType, dir, in, color)] = MAKE_BEAM(out, color);</t>
+  </si>
+  <si>
+    <t>FOREACH_DIR_END</t>
+  </si>
+  <si>
+    <t>void CreateReflector()</t>
+  </si>
+  <si>
+    <t>int TOut[8] = { 0, 7, -1, -1, -1, -1, -1, 1 };</t>
+  </si>
+  <si>
+    <t>_CreateRefraction(MT_REFLECTOR, 8, TOut);</t>
+  </si>
+  <si>
+    <t>void CreateBender()</t>
+  </si>
+  <si>
+    <t>int TOut[8] = { 1, 0, 7, -1, -1, -1, -1, 2 };</t>
+  </si>
+  <si>
+    <t>_CreateRefraction(MT_BENDER, 8, TOut);</t>
+  </si>
+  <si>
+    <t>void CreateQuadReflector()</t>
+  </si>
+  <si>
+    <t>int TOut[8] = { 0, 7, -1, 5, 4, 3, -1, 1 };</t>
+  </si>
+  <si>
+    <t>_CreateRefraction(MT_QUAD_REFL, 8, TOut);</t>
+  </si>
+  <si>
+    <t>void CreateQuadBender()</t>
+  </si>
+  <si>
+    <t>int TOut[8] = { 1, 0, 7, 6, 5, 4, 3, 2 };</t>
+  </si>
+  <si>
+    <t>_CreateRefraction(MT_QUAD_BEND, 4, TOut);</t>
+  </si>
+  <si>
+    <t>它们唯一不同的地方是方向，为每种镜子定义方向数组Tout：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色定义：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>举例说明：垂直镜子，TOut[7] = 1的意义</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANGLE_IN： DIR(in - dir + 8) = (6 - 7 + 8) % 8 = 7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle_out: TOut[7] = 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>out: DIR(dir + angle_out + 4) = (7 + 1 + 4) % 8 = 4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上图所示，入射光方向为6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算得到出射光方向为4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以说： TOut[7] = 1就是TOut[输入夹角] = 输出夹角</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void _FilterCreator(int nType, int TColor[8])</t>
+  </si>
+  <si>
+    <t>FOREACH_DIR_BEGIN(4)</t>
+  </si>
+  <si>
+    <t>//只有法线方向 和 180度方向通过</t>
+  </si>
+  <si>
+    <t>if (in != dir &amp;&amp; in != DIR(dir + 4))</t>
+  </si>
+  <si>
+    <t>continue;</t>
+  </si>
+  <si>
+    <t>if (TColor[color] == 0)</t>
+  </si>
+  <si>
+    <t>//出射光与入射光同向，颜色变换</t>
+  </si>
+  <si>
+    <t>TblMirror[MAKE_INDEX(nType, dir, in, color)] = MAKE_BEAM(in, TColor[color]);</t>
+  </si>
+  <si>
+    <t>void CreateFilterR()</t>
+  </si>
+  <si>
+    <t>int TColor[8] = { 0, 0, 0, 0, 4, 4, 4, 4 };</t>
+  </si>
+  <si>
+    <t>_FilterCreator(MT_FILTER_R, TColor);</t>
+  </si>
+  <si>
+    <t>void CreateFilterG()</t>
+  </si>
+  <si>
+    <t>int TColor[8] = { 0, 0, 2, 2, 0, 0, 2, 2 };</t>
+  </si>
+  <si>
+    <t>_FilterCreator(MT_FILTER_G, TColor);</t>
+  </si>
+  <si>
+    <t>void CreateFilterB()</t>
+  </si>
+  <si>
+    <t>int TColor[8] = { 0, 1, 0, 1, 0, 1, 0, 1 };</t>
+  </si>
+  <si>
+    <t>_FilterCreator(MT_FILTER_B, TColor);</t>
+  </si>
+  <si>
+    <t>void CreateConduit()</t>
+  </si>
+  <si>
+    <t>int TColor[8] = { 0, 1, 2, 3, 4, 5, 6, 7 };</t>
+  </si>
+  <si>
+    <t>_FilterCreator(MT_CONDUIT, TColor);</t>
+  </si>
+  <si>
+    <t>下面这些镜子方向不变，颜色变换</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>举例说明FilterG的TColor[7] = 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7表示白色，2表示绿色分量透过</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void _CreatePrismR()</t>
+  </si>
+  <si>
+    <t>//红色分量穿透</t>
+  </si>
+  <si>
+    <t>FOREACH_DIR_BEGIN(8)</t>
+  </si>
+  <si>
+    <t>if (in == DIR(dir + 3) || in == DIR(dir + 4) || in == DIR(dir + 7) || in == dir)</t>
+  </si>
+  <si>
+    <t>if (color &amp; 4)</t>
+  </si>
+  <si>
+    <t>TblMirror[MAKE_INDEX(MT_PRISM, dir, in, color)] = MAKE_BEAM(in, color &amp; 4);</t>
+  </si>
+  <si>
+    <t>void _CreatePrismG()</t>
+  </si>
+  <si>
+    <t>//绿色分量135度折射</t>
+  </si>
+  <si>
+    <t>int out;</t>
+  </si>
+  <si>
+    <t>if (in == dir)</t>
+  </si>
+  <si>
+    <t>out = DIR(dir + 1);</t>
+  </si>
+  <si>
+    <t>else if (in == DIR(dir + 6))</t>
+  </si>
+  <si>
+    <t>out = DIR(dir + 7);</t>
+  </si>
+  <si>
+    <t>else if (in == DIR(dir + 5))</t>
+  </si>
+  <si>
+    <t>out = DIR(dir + 4);</t>
+  </si>
+  <si>
+    <t>else if (in == DIR(dir + 3))</t>
+  </si>
+  <si>
+    <t>out = DIR(dir + 2);</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>if (color &amp; 2)</t>
+  </si>
+  <si>
+    <t>TblPrismG[(dir &lt;&lt; 6) + MAKE_BEAM(in, color)] = MAKE_BEAM(out, color &amp; 2);</t>
+  </si>
+  <si>
+    <t>void _CreatePrismB()</t>
+  </si>
+  <si>
+    <t>//蓝色分量90度折射</t>
+  </si>
+  <si>
+    <t>if (color &amp; 1)</t>
+  </si>
+  <si>
+    <t>TblPrismB[(dir &lt;&lt; 6) + MAKE_BEAM(in, color)] = MAKE_BEAM(out, color &amp; 1);</t>
+  </si>
+  <si>
+    <t>void CreatePrism()</t>
+  </si>
+  <si>
+    <t>_CreatePrismR();</t>
+  </si>
+  <si>
+    <t>_CreatePrismG();</t>
+  </si>
+  <si>
+    <t>_CreatePrismB();</t>
+  </si>
+  <si>
+    <t>三棱镜多出了一个特点，就是白色分量需要分解为红、绿、蓝三个分量分别计算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：很简单，分别为三个分量建表，只有其中一个颜色分量能使用TMirror</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>另外两个分量需要用另外定义的表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似地，所有具有单光束进入，多光束输出的都需要建立N-1张表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光线跟踪过程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TraceFromLaser();</t>
+  </si>
+  <si>
+    <t>TraceViaMirror();</t>
+  </si>
+  <si>
+    <t>ProcessTarget();</t>
+  </si>
+  <si>
+    <t>第一步，从光源得到所有光束，每个光束包括颜色，方向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二步，跟踪每个光束，每前进一格，就是访问一次TMirror数组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三部，目标命中与取消命中更新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void CMirBoard::TraceFromLaser()</t>
+  </si>
+  <si>
+    <t>memset(m_bmpLight, 0, sizeof(m_bmpLight));</t>
+  </si>
+  <si>
+    <t>int color = 0;</t>
+  </si>
+  <si>
+    <t>for (int nGrid = 0; nGrid &lt; 256; nGrid++)</t>
+  </si>
+  <si>
+    <t>int type = MIRROR_TYPE(m_nMirror[nGrid]);</t>
+  </si>
+  <si>
+    <t>switch (type)</t>
+  </si>
+  <si>
+    <t>case MT_LASER_R:</t>
+  </si>
+  <si>
+    <t>color = 4;</t>
+  </si>
+  <si>
+    <t>break;</t>
+  </si>
+  <si>
+    <t>case MT_LASER_G:</t>
+  </si>
+  <si>
+    <t>color = 2;</t>
+  </si>
+  <si>
+    <t>case MT_LASER_B:</t>
+  </si>
+  <si>
+    <t>color = 1;</t>
+  </si>
+  <si>
+    <t>case MT_LASER_W:</t>
+  </si>
+  <si>
+    <t>color = 7;</t>
+  </si>
+  <si>
+    <t>default:</t>
+  </si>
+  <si>
+    <t>continue; //不是光源</t>
+  </si>
+  <si>
+    <t>m_vecGrid.push_back(nGrid);</t>
+  </si>
+  <si>
+    <t>int dir = MIRROR_DIR(m_nMirror[nGrid]);</t>
+  </si>
+  <si>
+    <t>int out = DIR(dir + 4);</t>
+  </si>
+  <si>
+    <t>m_vecBeam.push_back(MAKE_BEAM(out, color));</t>
+  </si>
+  <si>
+    <t>这段代码不需要过多的解释</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void CMirBoard::TraceViaMirror()</t>
+  </si>
+  <si>
+    <t>while (!m_vecBeam.empty())</t>
+  </si>
+  <si>
+    <t>byte nBeam = m_vecBeam.back();</t>
+  </si>
+  <si>
+    <t>byte nGrid = m_vecGrid.back();</t>
+  </si>
+  <si>
+    <t>m_vecBeam.pop_back();</t>
+  </si>
+  <si>
+    <t>m_vecGrid.pop_back();</t>
+  </si>
+  <si>
+    <t>while (nBeam)</t>
+  </si>
+  <si>
+    <t>//当前格子的输出光束的方向和颜色</t>
+  </si>
+  <si>
+    <t>if ((m_bmpLight[nGrid] &amp; TblLightMask[nBeam]) == TblLightMask[nBeam])</t>
+  </si>
+  <si>
+    <t>m_bmpLight[nGrid] |= TblLightMask[nBeam];</t>
+  </si>
+  <si>
+    <t>//追踪不压栈的光束</t>
+  </si>
+  <si>
+    <t>if ((nGrid = TblNextGrid[(nGrid &lt;&lt; 3) + (nBeam &gt;&gt; 3)]) == 255) //格点+出向</t>
+  </si>
+  <si>
+    <t>if (TblSpecMirror[MIRROR_TYPE(m_nMirror[nGrid])])</t>
+  </si>
+  <si>
+    <t>//对特殊镜子的处理</t>
+  </si>
+  <si>
+    <t>if ((nGrid = ViaSpecMirror(nGrid, nBeam)) == 255)</t>
+  </si>
+  <si>
+    <t>nBeam = TblMirror[(m_nMirror[nGrid] &lt;&lt; 6) + nBeam];</t>
+  </si>
+  <si>
+    <t>如下，黄色标注的两行是代码核心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void CMirBoard::ProcessTarget()</t>
+  </si>
+  <si>
+    <t>static int TColor[8] = { 4, 2, 1, 6, 5, 3, 7, 0 }; //“镜向”-&gt;颜色</t>
+  </si>
+  <si>
+    <t>m_bSuccess = true;</t>
+  </si>
+  <si>
+    <t>//没有靶标时为失败</t>
+  </si>
+  <si>
+    <t>if (m_vecTarget.empty())</t>
+  </si>
+  <si>
+    <t>m_bSuccess = false;</t>
+  </si>
+  <si>
+    <t>VECMIRROR::iterator iter;</t>
+  </si>
+  <si>
+    <t>for (iter = m_vecTarget.begin(); iter != m_vecTarget.end(); iter++)</t>
+  </si>
+  <si>
+    <t>int type_dir = (*iter)-&gt;GetTypeDir();</t>
+  </si>
+  <si>
+    <t>int dir = MIRROR_DIR(type_dir);</t>
+  </si>
+  <si>
+    <t>//设置类型和源位置</t>
+  </si>
+  <si>
+    <t>int type;</t>
+  </si>
+  <si>
+    <t>if (TColor[dir] == GetLightColor((*iter)-&gt;GetGrid()))</t>
+  </si>
+  <si>
+    <t>type = MT_HIT_TARGET;</t>
+  </si>
+  <si>
+    <t>type = MT_TARGET;</t>
+  </si>
+  <si>
+    <t>(*iter)-&gt;SetTypeDir(MAKE_MIRROR(type, dir));</t>
+  </si>
+  <si>
+    <t>(*iter)-&gt;SetSrcPos(MIRROR_SRC(type, dir));</t>
+  </si>
+  <si>
+    <t>目标和目标命中是菊花镜的两种状态，它们随是否命中而改变状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void CMirBoard::SymmTraceTangler(int nGrid1, int nBeam1, int nGrid2, int nBeam2)</t>
+  </si>
+  <si>
+    <t>int nNextGrid1, nNextGrid2;</t>
+  </si>
+  <si>
+    <t>while (nBeam1 &amp;&amp; nBeam2) //光束终止</t>
+  </si>
+  <si>
+    <t>nNextGrid1 = TblNextGrid[(nGrid1 &lt;&lt; 3) + (nBeam1 &gt;&gt; 3)];</t>
+  </si>
+  <si>
+    <t>nNextGrid2 = TblNextGrid[(nGrid2 &lt;&lt; 3) + (nBeam2 &gt;&gt; 3)];</t>
+  </si>
+  <si>
+    <t>if (nNextGrid1 == 255 || nNextGrid2 == 255) //出界</t>
+  </si>
+  <si>
+    <t>byte type1 = MIRROR_TYPE(m_nMirror[nNextGrid1]);</t>
+  </si>
+  <si>
+    <t>byte type2 = MIRROR_TYPE(m_nMirror[nNextGrid2]);</t>
+  </si>
+  <si>
+    <t>if (TblQuantumEnd[type1] || TblQuantumEnd[type2]) //能量终止</t>
+  </si>
+  <si>
+    <t>//真实颜色的光束</t>
+  </si>
+  <si>
+    <t>m_bmpLight[nGrid1] |= TblLightMask[nBeam1];</t>
+  </si>
+  <si>
+    <t>m_bmpLight[nGrid2] |= TblLightMask[nBeam2];</t>
+  </si>
+  <si>
+    <t>//经过实际的镜子</t>
+  </si>
+  <si>
+    <t>int nNextBeam1 = TraceOneGrid(nNextGrid1, nBeam1);</t>
+  </si>
+  <si>
+    <t>int nNextBeam2 = TraceOneGrid(nNextGrid2, nBeam2);</t>
+  </si>
+  <si>
+    <t>//经过反向的多普勒镜</t>
+  </si>
+  <si>
+    <t>byte doppler1 = ConstructDoppler(nGrid2, nBeam2, nNextBeam1 &gt;&gt; 3);</t>
+  </si>
+  <si>
+    <t>byte doppler2 = ConstructDoppler(nGrid1, nBeam1, nNextBeam2 &gt;&gt; 3);</t>
+  </si>
+  <si>
+    <t>nGrid1 = nNextGrid1;</t>
+  </si>
+  <si>
+    <t>nGrid2 = nNextGrid2;</t>
+  </si>
+  <si>
+    <t>nBeam1 = TblMirror[(doppler1 &lt;&lt; 6) + nNextBeam1];</t>
+  </si>
+  <si>
+    <t>nBeam2 = TblMirror[(doppler2 &lt;&lt; 6) + nNextBeam2];</t>
+  </si>
+  <si>
+    <t>//能量终止，按照普通光束处理</t>
+  </si>
+  <si>
+    <t>m_vecGrid.push_back(nGrid1);</t>
+  </si>
+  <si>
+    <t>m_vecBeam.push_back(nBeam1);</t>
+  </si>
+  <si>
+    <t>m_vecGrid.push_back(nGrid2);</t>
+  </si>
+  <si>
+    <t>m_vecBeam.push_back(nBeam2);</t>
+  </si>
+  <si>
+    <t>这就是非常难写的能量纠缠镜！！！也是该算法的点睛之处！！！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte CMirBoard::ConstructDoppler(int nGrid, int nBeam, int nBeamDir)</t>
+  </si>
+  <si>
+    <t>nGrid = TblNextGrid[(nGrid &lt;&lt; 3) + (nBeam &gt;&gt; 3)];</t>
+  </si>
+  <si>
+    <t>//如果光线通过多普勒镜，则构造反向的多普勒镜</t>
+  </si>
+  <si>
+    <t>if (MIRROR_TYPE(m_nMirror[nGrid]) == MT_DOPPLER)</t>
+  </si>
+  <si>
+    <t>int in = nBeam &gt;&gt; 3;</t>
+  </si>
+  <si>
+    <t>int angle_in = (in - dir + 8) &amp; 0x7;</t>
+  </si>
+  <si>
+    <t>if (angle_in == 0)</t>
+  </si>
+  <si>
+    <t>return MAKE_MIRROR(MT_DOPPLER, DIR(nBeamDir + 4));</t>
+  </si>
+  <si>
+    <t>if (angle_in == 4)</t>
+  </si>
+  <si>
+    <t>return MAKE_MIRROR(MT_DOPPLER, DIR(nBeamDir + 0));</t>
+  </si>
+  <si>
+    <t>return MAKE_MIRROR(MT_NOTHING, 0);</t>
+  </si>
+  <si>
+    <t>int CMirBoard::TraceOneGrid(int &amp;nGrid, int nBeam)</t>
+  </si>
+  <si>
+    <t>if (MIRROR_TYPE(m_nMirror[nGrid]) == MT_TELEPORTER)</t>
+  </si>
+  <si>
+    <t>while ((nGrid = TblNextGrid[(nGrid &lt;&lt; 3) + (nBeam &gt;&gt; 3)]) != 255)</t>
+  </si>
+  <si>
+    <t>if (nGrid == 255)</t>
+  </si>
+  <si>
+    <t>if (MIRROR_TYPE(m_nMirror[nGrid]) == MT_PRISM)</t>
+  </si>
+  <si>
+    <t>int nBeamIndex = (MIRROR_DIR(m_nMirror[nGrid]) &lt;&lt; 6) + nBeam;</t>
+  </si>
+  <si>
+    <t>//最多存在一个红，绿，蓝分量</t>
+  </si>
+  <si>
+    <t>if (TblPrismG[nBeamIndex] != 0)</t>
+  </si>
+  <si>
+    <t>return TblPrismG[nBeamIndex];</t>
+  </si>
+  <si>
+    <t>if (TblPrismB[nBeamIndex] != 0)</t>
+  </si>
+  <si>
+    <t>return TblPrismB[nBeamIndex];</t>
+  </si>
+  <si>
+    <t>return TblMirror[(m_nMirror[nGrid] &lt;&lt; 6) + nBeam];</t>
+  </si>
+  <si>
+    <t>构造不存在的对称的多普勒镜，逐格对称跟踪，对称跟踪能量纠缠镜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下面三个函数留给读者研究，也许会给您带来美的享受。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -301,7 +1083,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,6 +1102,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -335,7 +1123,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -349,6 +1137,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2267,6 +3064,561 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="200025" y="1381125"/>
+          <a:ext cx="5638800" cy="3705225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="219075" y="13220700"/>
+          <a:ext cx="5686425" cy="3724275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="361950" y="20507325"/>
+          <a:ext cx="5476875" cy="3714750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="400050" y="27784425"/>
+          <a:ext cx="5581650" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="200025" y="36709350"/>
+          <a:ext cx="5543550" cy="3648075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="285750" y="5238750"/>
+          <a:ext cx="5562600" cy="3695700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="180975" y="9163050"/>
+          <a:ext cx="5715000" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="333375" y="41662350"/>
+          <a:ext cx="5667375" cy="3848100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="190500" y="46177200"/>
+          <a:ext cx="5591175" cy="3648075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>336</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>357</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="304800" y="57654825"/>
+          <a:ext cx="5734050" cy="3676650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -2596,6 +3948,2013 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AQ429"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="32:43" x14ac:dyDescent="0.15">
+      <c r="AF17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+    </row>
+    <row r="18" spans="32:43" x14ac:dyDescent="0.15">
+      <c r="AF18" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ18" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="32:43" x14ac:dyDescent="0.15">
+      <c r="AF19" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ19" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="32:43" x14ac:dyDescent="0.15">
+      <c r="AF20" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ20" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="32:43" x14ac:dyDescent="0.15">
+      <c r="AF21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ21" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="32:43" x14ac:dyDescent="0.15">
+      <c r="AF22" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ22" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="32:43" x14ac:dyDescent="0.15">
+      <c r="AF23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ23" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="32:43" x14ac:dyDescent="0.15">
+      <c r="AF24" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ24" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="32:43" x14ac:dyDescent="0.15">
+      <c r="AF25" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ25" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B77" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="101" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C101" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C102" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D103" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="104" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D104" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="105" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E105" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="106" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D106" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="107" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C107" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="108" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="133" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C133" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="134" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C134" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="135" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C135" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="136" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D136" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="137" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D137" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="138" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="E138" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="139" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="E139" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="140" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="F140" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="141" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="F141" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="142" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="F142" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="144" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="F144" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="145" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="F145" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="146" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="G146" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="147" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="G147" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="148" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="F148" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="149" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="E149" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="150" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="D150" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C151" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C175" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C176" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="177" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C177" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="178" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="D178" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="179" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="E179" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="180" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="E180" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="181" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="E181" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="182" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="F182" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="183" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="F183" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="184" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="F184" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="185" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="G185" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="186" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="E186" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="187" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="D187" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="188" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C188" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="190" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C190" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="191" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C191" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="192" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="D192" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="193" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D193" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="194" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C194" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="196" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C196" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="197" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C197" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="198" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D198" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="199" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D199" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="200" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C200" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="202" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C202" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="203" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C203" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="204" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D204" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="205" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D205" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="206" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C206" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="208" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C208" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="209" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C209" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="210" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="D210" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="211" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="D211" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="212" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C212" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="214" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B214" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
+      <c r="O214" s="1"/>
+    </row>
+    <row r="237" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C237" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="238" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C238" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="239" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C239" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="240" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C240" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C241" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="267" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B267" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C267" s="1"/>
+      <c r="D267" s="1"/>
+      <c r="E267" s="1"/>
+      <c r="F267" s="1"/>
+      <c r="G267" s="1"/>
+      <c r="H267" s="1"/>
+      <c r="I267" s="1"/>
+      <c r="J267" s="1"/>
+      <c r="K267" s="1"/>
+      <c r="L267" s="1"/>
+      <c r="M267" s="1"/>
+      <c r="N267" s="1"/>
+      <c r="O267" s="1"/>
+      <c r="P267" s="1"/>
+      <c r="Q267" s="1"/>
+      <c r="R267" s="1"/>
+      <c r="S267" s="1"/>
+      <c r="T267" s="1"/>
+      <c r="U267" s="1"/>
+      <c r="V267" s="1"/>
+      <c r="W267" s="1"/>
+    </row>
+    <row r="269" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B269" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="292" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B292" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="293" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B293" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="294" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C294" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="295" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D295" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="296" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D296" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="297" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E297" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="299" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D299" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="300" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D300" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="301" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E301" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="302" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F302" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="303" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E303" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="304" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E304" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="305" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D305" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="306" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C306" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="307" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B307" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="309" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B309" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="310" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B310" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="311" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C311" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="312" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C312" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="313" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B313" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="315" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B315" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="316" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B316" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="317" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C317" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="318" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C318" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="319" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B319" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="321" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B321" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="322" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B322" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="323" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C323" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="324" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C324" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="325" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B325" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="327" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B327" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="328" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B328" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="329" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C329" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="330" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C330" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="331" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B331" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="333" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B333" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="334" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B334" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="336" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B336" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="359" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B359" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="360" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B360" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="361" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C361" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="362" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C362" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="363" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D363" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="364" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D364" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="365" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E365" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="366" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E366" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="367" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F367" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="368" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G368" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="369" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E369" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="370" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D370" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="371" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C371" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="372" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B372" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="374" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B374" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="375" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B375" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="376" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C376" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="377" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C377" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="378" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D378" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="379" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D379" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="380" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E380" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="381" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D381" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="382" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E382" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="383" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D383" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="384" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E384" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="385" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D385" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="386" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E386" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="387" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D387" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="388" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E388" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="389" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D389" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="390" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D390" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="391" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E391" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="392" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F392" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="393" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D393" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="394" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C394" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="395" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B395" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="397" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B397" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="398" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B398" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="399" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C399" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="400" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C400" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="401" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D401" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="402" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D402" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="403" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E403" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="404" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D404" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="405" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E405" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="406" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D406" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="407" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E407" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="408" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D408" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="409" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E409" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="410" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D410" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="411" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E411" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="412" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D412" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="413" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D413" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="414" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E414" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="415" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F415" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="416" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D416" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="417" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C417" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="418" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B418" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="420" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B420" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="421" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B421" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="422" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C422" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="423" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C423" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="424" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C424" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="425" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B425" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="427" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B427" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="428" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B428" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="429" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B429" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB191"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D30" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E32" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E34" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D36" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D38" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D39" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D40" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C47" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="4:28" x14ac:dyDescent="0.15">
+      <c r="D49" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="4:28" x14ac:dyDescent="0.15">
+      <c r="D50" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51" spans="4:28" x14ac:dyDescent="0.15">
+      <c r="D51" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="52" spans="4:28" x14ac:dyDescent="0.15">
+      <c r="D52" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="54" spans="4:28" x14ac:dyDescent="0.15">
+      <c r="D54" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="55" spans="4:28" x14ac:dyDescent="0.15">
+      <c r="D55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="4:28" x14ac:dyDescent="0.15">
+      <c r="E56" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="57" spans="4:28" x14ac:dyDescent="0.15">
+      <c r="E57" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="58" spans="4:28" x14ac:dyDescent="0.15">
+      <c r="F58" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="59" spans="4:28" x14ac:dyDescent="0.15">
+      <c r="E59" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="61" spans="4:28" x14ac:dyDescent="0.15">
+      <c r="E61" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="62" spans="4:28" x14ac:dyDescent="0.15">
+      <c r="E62" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F62" s="6"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="6"/>
+      <c r="AA62" s="6"/>
+      <c r="AB62" s="6"/>
+    </row>
+    <row r="63" spans="4:28" x14ac:dyDescent="0.15">
+      <c r="F63" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="E65" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="E66" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="F67" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="F68" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="G69" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="E70" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="E71" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="D72" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C73" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B74" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B77" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+    </row>
+    <row r="78" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B78" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B79" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C80" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C82" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C83" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C84" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D85" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C87" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C88" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C89" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D90" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D91" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D93" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D94" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D95" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="96" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E96" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="97" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="D97" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="98" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="D98" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="E99" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="100" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="E100" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="101" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="D101" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="D102" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="103" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="D103" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="104" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="C104" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B105" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B108" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="7"/>
+      <c r="K108" s="7"/>
+      <c r="L108" s="7"/>
+      <c r="M108" s="7"/>
+      <c r="N108" s="7"/>
+      <c r="O108" s="7"/>
+      <c r="P108" s="7"/>
+      <c r="Q108" s="7"/>
+      <c r="R108" s="7"/>
+      <c r="S108" s="7"/>
+      <c r="T108" s="7"/>
+      <c r="U108" s="7"/>
+      <c r="V108" s="7"/>
+    </row>
+    <row r="109" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B109" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="7"/>
+      <c r="M109" s="7"/>
+      <c r="N109" s="7"/>
+      <c r="O109" s="7"/>
+      <c r="P109" s="7"/>
+      <c r="Q109" s="7"/>
+      <c r="R109" s="7"/>
+      <c r="S109" s="7"/>
+      <c r="T109" s="7"/>
+      <c r="U109" s="7"/>
+      <c r="V109" s="7"/>
+    </row>
+    <row r="110" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B110" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="T110" s="1"/>
+      <c r="U110" s="1"/>
+      <c r="V110" s="1"/>
+      <c r="W110" s="1"/>
+    </row>
+    <row r="111" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B111" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="112" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B112" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C113" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C115" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C116" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C117" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D118" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D119" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D120" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D122" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E123" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D124" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E125" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C126" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C127" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B128" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B130" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B131" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C132" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C133" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D134" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D135" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E136" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F137" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D138" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D139" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E140" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C141" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C142" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C143" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D144" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D145" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D146" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E147" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D148" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E149" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C150" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C151" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B152" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B154" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B155" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C156" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C157" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C158" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D159" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D160" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="161" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D161" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="162" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E162" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="164" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D164" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="165" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D165" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="166" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D166" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="167" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E167" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="169" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D169" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="170" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D170" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="171" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D171" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="173" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D173" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="174" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D174" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="175" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D175" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D177" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D178" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D179" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D181" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D182" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D183" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D184" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C185" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C186" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C187" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C188" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C189" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C190" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B191" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ129"/>
@@ -3453,7 +6812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/说明.xlsx
+++ b/说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="10755" windowHeight="4455" activeTab="10"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="10755" windowHeight="4455" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="391">
   <si>
     <t>二、下载并安装VS2008ProEdition90DayTrialCHSX1435983.iso</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1043,6 +1043,288 @@
   </si>
   <si>
     <t>下面三个函数留给读者研究，也许会给您带来美的享受。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从使用开始</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建一个图片精灵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//移动标记初始化</t>
+  </si>
+  <si>
+    <t>m_pMoveTagA = new CSprite(&amp;ImagePiece, CPoint(0, 0), CSize(36, 36), 0);</t>
+  </si>
+  <si>
+    <t>if (!m_pMoveTagA || !m_pMoveTagA-&gt;Initial())</t>
+  </si>
+  <si>
+    <t>return false;</t>
+  </si>
+  <si>
+    <t>m_pMoveTagA-&gt;Show(false);</t>
+  </si>
+  <si>
+    <t>AddObject(m_pMoveTagA);</t>
+  </si>
+  <si>
+    <t>说明：创建一个图片精灵，指定参数：图片指针，绘制目的地，绘制源位置，裁区大小，深度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有对象都记得要初始化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即显示设置为否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加到父控件对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四状态按钮满足不了需求怎么办？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>class CChessPiece : public CButton {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  public:</t>
+  </si>
+  <si>
+    <t>CChessPiece(CPoint xDrawPos, int nGrid, int nKind);</t>
+  </si>
+  <si>
+    <t>virtual ~CChessPiece();</t>
+  </si>
+  <si>
+    <t>void</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SetGrid(int nGrid);</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GetGrid() const;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SetKind(int nKind);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GetKind() const;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  protected:</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IsExist() const;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OnSelect();</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OnUnSelect();</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> m_nGrid;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> m_nKind;</t>
+  </si>
+  <si>
+    <t>static CFlickAnime</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AnimeFlick;</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>定义自己的棋子按钮类：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件和该控件上的行为不分割，为什么这么做？为了平民化，为了容易理解。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>for (int nKind = R_ROOK; nKind &lt;= B_KING; nKind++)</t>
+  </si>
+  <si>
+    <t>m_pPiece[nKind] = new CChessPiece(PIECE_POS(nKind), nKind, nKind);</t>
+  </si>
+  <si>
+    <t>if (!m_pPiece[nKind] || !m_pPiece[nKind]-&gt;Initial())</t>
+  </si>
+  <si>
+    <t>m_pPiece[nKind]-&gt;m_pHome = this;</t>
+  </si>
+  <si>
+    <t>m_pPiece[nKind]-&gt;SetSrcPos(PIECE_SRC(nKind));</t>
+  </si>
+  <si>
+    <t>m_pPiece[nKind]-&gt;SetMouseProc(MP_LCLICK, boost::bind(&amp;CChessBox::OnLClick, this, _1));</t>
+  </si>
+  <si>
+    <t>AddObject(m_pPiece[nKind]);</t>
+  </si>
+  <si>
+    <t>为每种类型的棋子创建一个棋子按钮对象，并指定它们的家(m_pHome)，并设置左键单击回调</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>class CChessBoard : public CPanel {</t>
+  </si>
+  <si>
+    <t>SINGLETON(CChessBoard);</t>
+  </si>
+  <si>
+    <t>~CChessBoard();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  private:</t>
+  </si>
+  <si>
+    <t>CChessBoard();</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Initial();</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Release();</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _AddPiece(int nGrid, int nKind);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _DelPiece(int nGrid);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _ChgPiece(int nGrid, int nKind);</t>
+  </si>
+  <si>
+    <t>同样，面板类满足不了你的需求，自定义棋盘面板类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>};</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (!g_pChessBoard-&gt;Initial())</t>
+  </si>
+  <si>
+    <t>g_pChessBoard-&gt;Set(NULL, CPoint(13, 14), CPoint(0, 0), CSize(348, 387), 0);</t>
+  </si>
+  <si>
+    <t>g_pZ2coo-&gt;AddObject(g_pChessBoard);</t>
+  </si>
+  <si>
+    <t>//创建棋盘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>棋盘对象初始化，还可以设置位置属性等，最后添加到g_pZ2coo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_pZ2coo是2D控件库的指挥官，它和一个窗口唯一的绑定，窗口上的鼠标，按键事件会交由Z2coo处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理的结果是寻找应当处理的控件，并交由其处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_pZ2coo还代表了窗口的最原始的控件容器，它是透明的，可响应的。就好像窗口上没有控件的空白区也能响应鼠标事件。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>class CMirChoice : public CDialog {</t>
+  </si>
+  <si>
+    <t>CMirChoice(CPoint xDrawPos);</t>
+  </si>
+  <si>
+    <t>virtual ~CMirChoice();</t>
+  </si>
+  <si>
+    <t>INT_PTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DialogResult();</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OnLClick(UINT nFlags, CPoint point);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> type_dir;</t>
+  </si>
+  <si>
+    <t>同样地，如果你觉得对话框类满足不了你的需求，可以派生出子类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//创建模态选择框并调整位置</t>
+  </si>
+  <si>
+    <t>CMirChoice tMirChoice(point);</t>
+  </si>
+  <si>
+    <t>if (!tMirChoice.Initial())</t>
+  </si>
+  <si>
+    <t>return;</t>
+  </si>
+  <si>
+    <t>CRect rect;</t>
+  </si>
+  <si>
+    <t>g_pGameTable-&gt;GetClientRect(&amp;rect);</t>
+  </si>
+  <si>
+    <t>tMirChoice.AdjustAnchor(point, rect);</t>
+  </si>
+  <si>
+    <t>//弹出模态选择框</t>
+  </si>
+  <si>
+    <t>byte type_dir = tMirChoice.DoModal();</t>
+  </si>
+  <si>
+    <t>这里需要创建一个模态对话框，必须返回后，其他窗口才能响应鼠标、键盘事件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开一个镜子选择模态对话框，就是要得到用户选择了什么镜子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值就是type_dir</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深入分析g_pZ2coo本身实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四态按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮的派生——兵种选择器</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4987,7 +5269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -6797,12 +7079,757 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AE143"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B139" sqref="B139"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>308</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="D6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="B10" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B19" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>322</v>
+      </c>
+      <c r="F27" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>324</v>
+      </c>
+      <c r="G28" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>322</v>
+      </c>
+      <c r="F29" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>324</v>
+      </c>
+      <c r="G30" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>329</v>
+      </c>
+      <c r="F33" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>322</v>
+      </c>
+      <c r="F36" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C37" t="s">
+        <v>322</v>
+      </c>
+      <c r="F37" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
+        <v>324</v>
+      </c>
+      <c r="G40" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
+        <v>324</v>
+      </c>
+      <c r="G41" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
+        <v>335</v>
+      </c>
+      <c r="E44" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="49" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="B49" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+    </row>
+    <row r="50" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="51" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="C52" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="53" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="C53" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="54" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="D54" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="55" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="C55" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="56" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="C56" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="57" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="C57" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="59" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="C59" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="60" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B65" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C68" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C69" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B71" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C72" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B74" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C75" t="s">
+        <v>329</v>
+      </c>
+      <c r="F75" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C76" t="s">
+        <v>329</v>
+      </c>
+      <c r="F76" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="78" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B78" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C79" t="s">
+        <v>322</v>
+      </c>
+      <c r="F79" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="80" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C80" t="s">
+        <v>322</v>
+      </c>
+      <c r="F80" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="81" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="C81" t="s">
+        <v>322</v>
+      </c>
+      <c r="F81" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="82" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="C82" s="5"/>
+    </row>
+    <row r="83" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B83" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="86" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B86" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+    </row>
+    <row r="87" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B87" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="88" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B88" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="89" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="C89" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="90" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B90" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="91" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B91" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="94" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B94" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="95" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B95" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="96" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B96" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="101" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B101" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+    </row>
+    <row r="102" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B102" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="103" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B103" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="104" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="C104" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="105" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="C105" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="107" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B107" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="108" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="C108" t="s">
+        <v>329</v>
+      </c>
+      <c r="F108" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="109" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="C109" t="s">
+        <v>329</v>
+      </c>
+      <c r="F109" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="111" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B111" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="112" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="C112" t="s">
+        <v>371</v>
+      </c>
+      <c r="F112" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="114" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B114" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="115" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="C115" t="s">
+        <v>322</v>
+      </c>
+      <c r="F115" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="117" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B117" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="118" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="C118" t="s">
+        <v>324</v>
+      </c>
+      <c r="G118" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="119" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B119" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="121" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B121" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="1"/>
+      <c r="Q121" s="1"/>
+      <c r="R121" s="1"/>
+      <c r="S121" s="1"/>
+      <c r="T121" s="1"/>
+      <c r="U121" s="1"/>
+      <c r="V121" s="1"/>
+      <c r="W121" s="1"/>
+      <c r="X121" s="1"/>
+      <c r="Y121" s="1"/>
+      <c r="Z121" s="1"/>
+      <c r="AA121" s="1"/>
+    </row>
+    <row r="122" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B122" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="123" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B123" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="124" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B124" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="125" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="C125" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="126" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B126" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="127" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B127" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="128" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B128" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B130" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B131" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B133" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+      <c r="O133" s="1"/>
+      <c r="P133" s="1"/>
+      <c r="Q133" s="1"/>
+      <c r="R133" s="1"/>
+      <c r="S133" s="1"/>
+      <c r="T133" s="1"/>
+      <c r="U133" s="1"/>
+      <c r="V133" s="1"/>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B134" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B138" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B143" t="s">
+        <v>390</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
